--- a/criardataset/ojb/Kefa II_output.xlsx
+++ b/criardataset/ojb/Kefa II_output.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,8 @@
     <col width="7732.799999999999" customWidth="1" min="7" max="7"/>
     <col width="684" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="392.4" customWidth="1" min="10" max="10"/>
+    <col width="441.6" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="68.2" customHeight="1">
@@ -509,99 +511,119 @@
           <t>Ibn</t>
         </is>
       </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Onkelos</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="68.2" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Leviticus</t>
+          <t>Isaiah</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>20 But whatsoever hath a mum, that shall ye not offer, for it shall not be for you leratzon (acceptable [before Hashem]).</t>
+          <t>42 Here is Avdi [Moshiach, see Zech 3:8., Isa 52:13], whom I uphold., Mine Bachir (Elect One, Chosen One), in whom My nefesh delighteth., I have put My Ruach [Hakodesh] upon Him., He [Moshiach] shall bring forth mishpat to the Goyim.</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Não tragam nenhum animal defeituoso, porque não será aceito em favor de vocês.</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n"/>
+          <t>"Eis o meu servo, a quem sustento, o meu escolhido, em quem tenho prazer. Porei nele o meu Espírito, e ele trará justiça às nações.</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>'&lt;b&gt;Behold My servant, I will support him&lt;/b&gt; Behold My servant Jacob is not like you, for I will support him.', '&lt;b&gt;My chosen one&lt;/b&gt; Israel is called ‘My chosen one’ ([mss.:] His chosen one) (&lt;a class ="refLink" href="/Psalms.135.4" data-ref="Psalms 135:4"&gt;Ps. 135:4&lt;/a&gt;) “For the Eternal chose Jacob for Himself.” Scripture states also (infra 45:4): “For the sake of My servant Jacob and Israel My chosen one.”', '&lt;b&gt;whom My soul desires; I have placed My spirit upon him&lt;/b&gt; to let his prophets know My secret, and his end will be that ‘he shall promulgate justice to the nations,’ as it is stated (supra 2:3): “And let Him teach us of His ways etc.”'</t>
+        </is>
+      </c>
       <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>['כל אשר בו מום לא תקריבו כי לא לרצון יהיה לכם, as elaborated on by Maleachi 1,8.\n']</t>
-        </is>
-      </c>
+      <c r="H2" s="3" t="n"/>
       <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
     </row>
     <row r="3" ht="68.2" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Isaiah</t>
+          <t>Psalms</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>42 Here is Avdi [Moshiach, see Zech 3:8., Isa 52:13], whom I uphold., Mine Bachir (Elect One, Chosen One), in whom My nefesh delighteth., I have put My Ruach [Hakodesh] upon Him., He [Moshiach] shall bring forth mishpat to the Goyim.</t>
+          <t>6 By the Devar Hashem were Shomayim made., and all the tz’va (host) of them by the ruach (breath) of His mouth [MJ 11:3., Yn 1:1., Psa 56:5].</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>"Eis o meu servo, a quem sustento, o meu escolhido, em quem tenho prazer. Porei nele o meu Espírito, e ele trará justiça às nações.</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>'&lt;b&gt;Behold My servant, I will support him&lt;/b&gt; Behold My servant Jacob is not like you, for I will support him.', '&lt;b&gt;My chosen one&lt;/b&gt; Israel is called ‘My chosen one’ ([mss.:] His chosen one) (&lt;a class ="refLink" href="/Psalms.135.4" data-ref="Psalms 135:4"&gt;Ps. 135:4&lt;/a&gt;) “For the Eternal chose Jacob for Himself.” Scripture states also (infra 45:4): “For the sake of My servant Jacob and Israel My chosen one.”', '&lt;b&gt;whom My soul desires; I have placed My spirit upon him&lt;/b&gt; to let his prophets know My secret, and his end will be that ‘he shall promulgate justice to the nations,’ as it is stated (supra 2:3): “And let Him teach us of His ways etc.”'</t>
-        </is>
-      </c>
+          <t>Mediante a palavra do Senhor foram feitos os céus, e os corpos celestes, pelo sopro de sua boca.</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
     </row>
     <row r="4" ht="68.2" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>Leviticus</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>23 But if ye will not do so, hinei, ye have sinned against Hashem and be sure chattatechem (your sin) will find you out.</t>
+          <t>20 But whatsoever hath a mum, that shall ye not offer, for it shall not be for you leratzon (acceptable [before Hashem]).</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>"Mas, se vocês não fizerem isso, estarão pecando contra o Senhor; e estejam certos de que vocês não escaparão do pecado que cometeram.</t>
+          <t>Não tragam nenhum animal defeituoso, porque não será aceito em favor de vocês.</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>["'הנה חטאתם לה, by your failure to live up to your undertaking it will become clear that you had sinful intent from the beginning.. הנה חטאתם לה', by your failure to live up to your undertaking it will become clear that you had sinful intent from the beginning."]</t>
+          <t>['כל אשר בו מום לא תקריבו כי לא לרצון יהיה לכם, as elaborated on by Maleachi 1,8.\n']</t>
         </is>
       </c>
       <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>Anything that has a blemish on it you shall not bring, for it will not be accepted favorably for you.</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>But anything that hath a blemish you shall not offer; for that will not be acceptable from you.</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="68.2" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -633,95 +655,131 @@
       <c r="G5" s="3" t="n"/>
       <c r="H5" s="3" t="n"/>
       <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
     </row>
     <row r="6" ht="68.2" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Psalms</t>
+          <t>Numbers</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>7 I will declare the chok (decree): Hashem hath said unto me, Thou art Beni (My Son, i.e. Ben HaElohim Moshiach)., HaYom (today) I have begotten thee.</t>
+          <t>23 But if ye will not do so, hinei, ye have sinned against Hashem and be sure chattatechem (your sin) will find you out.</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Proclamarei o decreto do Senhor: Ele me disse: "Tu és meu filho; eu hoje te gerei.</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>'&lt;b&gt;I will tell of the decree&lt;/b&gt; Said David, “This is an established decree, and [one] that I have received to tell this and to make known.”', '&lt;b&gt;The Lord said to me&lt;/b&gt; through Nathan, Gad, and Samuel.', '&lt;b&gt;You are My son&lt;/b&gt; The head over Israel, who are called “My firstborn son.” And they will endure through you, as is stated concerning Abner (&lt;a class ="refLink" href="/II_Samuel.3.18" data-ref="II Samuel 3:18"&gt;II Sam. 3:18&lt;/a&gt;): “for God said, etc., ‘By the hand of My bondsman David shall I deliver...Israel.’” And for their sake, you are before Me as a son because they are all dependent upon you.', '&lt;b&gt;this day have I&lt;/b&gt; for I have enthroned you over them.', '&lt;b&gt;begotten you&lt;/b&gt; to be called My son and to be beloved to Me as a son for their sake, as it is stated (&lt;a class ="refLink" href="/II_Samuel.7.14" data-ref="II Samuel 7:14"&gt;II Sam. 7:14&lt;/a&gt;) concerning Solomon: “I will be to him a father, and he shall be to Me a son.” We find further concerning David (&lt;a class ="refLink" href="/Psalms.89.27" data-ref="Psalms 89:27"&gt;Ps. 89:27&lt;/a&gt;) “He shall call Me, ‘You are my Father, my God, and the Rock of my salvation.’”'</t>
-        </is>
-      </c>
+          <t>"Mas, se vocês não fizerem isso, estarão pecando contra o Senhor; e estejam certos de que vocês não escaparão do pecado que cometeram.</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n"/>
       <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>["'הנה חטאתם לה, by your failure to live up to your undertaking it will become clear that you had sinful intent from the beginning.. הנה חטאתם לה', by your failure to live up to your undertaking it will become clear that you had sinful intent from the beginning."]</t>
+        </is>
+      </c>
       <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>But if you will not do this, behold, you will have sinned against [&lt;b&gt;before&lt;/b&gt;] Adonoy and you must realize that your sin will find you!</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>But if you will not perform this, behold, ye will have sinned before the Lord your God, and know that your sin will meet you.</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="68.2" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Proverbs</t>
+          <t>Psalms</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>11 As a kelev returneth to his vomit, so a kesil (fool) returneth to his folly.</t>
+          <t>7 I will declare the chok (decree): Hashem hath said unto me, Thou art Beni (My Son, i.e. Ben HaElohim Moshiach)., HaYom (today) I have begotten thee.</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Como o cão volta ao seu vômito, assim o insensato repete a sua insensatez.</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="n"/>
+          <t>Proclamarei o decreto do Senhor: Ele me disse: "Tu és meu filho; eu hoje te gerei.</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>'&lt;b&gt;I will tell of the decree&lt;/b&gt; Said David, “This is an established decree, and [one] that I have received to tell this and to make known.”', '&lt;b&gt;The Lord said to me&lt;/b&gt; through Nathan, Gad, and Samuel.', '&lt;b&gt;You are My son&lt;/b&gt; The head over Israel, who are called “My firstborn son.” And they will endure through you, as is stated concerning Abner (&lt;a class ="refLink" href="/II_Samuel.3.18" data-ref="II Samuel 3:18"&gt;II Sam. 3:18&lt;/a&gt;): “for God said, etc., ‘By the hand of My bondsman David shall I deliver...Israel.’” And for their sake, you are before Me as a son because they are all dependent upon you.', '&lt;b&gt;this day have I&lt;/b&gt; for I have enthroned you over them.', '&lt;b&gt;begotten you&lt;/b&gt; to be called My son and to be beloved to Me as a son for their sake, as it is stated (&lt;a class ="refLink" href="/II_Samuel.7.14" data-ref="II Samuel 7:14"&gt;II Sam. 7:14&lt;/a&gt;) concerning Solomon: “I will be to him a father, and he shall be to Me a son.” We find further concerning David (&lt;a class ="refLink" href="/Psalms.89.27" data-ref="Psalms 89:27"&gt;Ps. 89:27&lt;/a&gt;) “He shall call Me, ‘You are my Father, my God, and the Rock of my salvation.’”'</t>
+        </is>
+      </c>
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
       <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
     </row>
     <row r="8" ht="68.2" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Isaiah</t>
+          <t>Numbers</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>9 And he made his kever (grave) with the resha’im, and with the oisher (rich man., see Mt 27:57-60) bemotayv (in his deaths, intensive plural should be translated singular, death)., because he had done no chamas (violence), neither was any mirmah (deceit) in his mouth. T.N. We stray as sheep., we return in Moshiach as children (zera)., the Techiyas HaMoshiach (Resurrection of Moshiach) predicted in v. 10 [Dead Sea Scrolls Isaiah Scroll says Moshiach "will see the light [of life].," see also the Targum HaShivim]</t>
+          <t>17 I see him, but not now., I behold him, but not karov (near)., there shall come a Kokhav (Star, i.e. Moshiach, see Targums) out of Ya’akov, and a Shevet (Sceptre) shall rise out of Yisroel, and shall strike through the temples (i.e., sides of the head) of Moav, and destroy all the Bnei Shet.</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Foi-lhe dado um túmulo com os ímpios, e com os ricos em sua morte, embora não tivesse cometido qualquer violência nem houvesse qualquer mentira em sua boca.</t>
+          <t>Eu o vejo, mas não agora; eu o avisto, mas não de perto. Uma estrela surgirá de Jacó; um cetro se levantará de Israel. Ele esmagará as frontes de Moabe e o crânio de todos os descendentes de Sete.</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>'&lt;b&gt;And he gave his grave to the wicked&lt;/b&gt; He subjected himself to be buried according to anything the wicked of the heathens (nations [mss., K’li Paz]) would decree upon him, for they would penalize him with death and the burial of donkeys in the intestines of the dogs.', '&lt;b&gt;to the wicked&lt;/b&gt; According to the will of the wicked, he was willing to be buried, and he would not deny the living God.', '&lt;b&gt;and to the wealthy with his kinds of death&lt;/b&gt; and to the will of the ruler he subjected himself to all kinds of death that he decreed upon him, because he did not wish to agree to (denial) [of the Torah] to commit evil and to rob like all the heathens (nations [mss., K’li Paz]) among whom he lived.', '&lt;b&gt;and there was no deceit in his mouth&lt;/b&gt; to accept idolatry (to accept a pagan deity as God [Parshandatha]).'</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
+          <t>'אראנו I SEE HIM — I see the preeminence of Jacob and his greatness, but it is not now (ולא עתה), but will be after some time.', 'דרך כוכב A STAR COMETH OUT [OF JACOB] — Understand this as the Targum does (“a king will arise from Jacob”). The word דרך has the same meaning as in (&lt;a class ="refLink" href="/Lamentations.2.4" data-ref="Lamentations 2:4"&gt;Lamentations 2:4&lt;/a&gt;): “He has bent (דרך lit., trodden) his bow; this expression is used because the star shoots across [the heavens] as an arrow does when the bow is trodden. In O. F. destent. It is as much as to say, “Prosperity (a good fortune) will rise”.', 'וקם שבט AND A שבט RISES [OUT OF ISRAEL] — a king, who chastises with the rod (שבט) and has sovereign power.', 'ומחץ פאתי מואב AND PIERCETH THE CORNERS OF MOAB — This is a reference to David of whom it is stated, (&lt;a class ="refLink" href="/II_Samuel.8.2" data-ref="II Samuel 8:2"&gt;II Samuel 8:2&lt;/a&gt;) “[And he smote Moab] … making them to lie down on the ground and he measured two lines to put to death etc.”.', 'וקרקר AND UNDERMINETH — This is an expression denoting “digging”, as in (&lt;a class ="refLink" href="/II_Kings.19.24" data-ref="II Kings 19:24"&gt;2 Kings 19:24&lt;/a&gt;): “I have dug (קרתי)”; (&lt;a class ="refLink" href="/Isaiah.51.1" data-ref="Isaiah 51:1"&gt;Isaiah 51:1&lt;/a&gt;): “The hole of the pit from which you were dug out  (נקרתם); (&lt;a class ="refLink" href="/Proverbs.30.17" data-ref="Proverbs 30:17"&gt;Proverbs 30:17&lt;/a&gt;) “The ravens of the valley shall dig it out (יקרהו)". In O. F. forer.', 'כל בני שת ALL THE CHILDREN OF SETH — i.e., all nations, because all of them issued from Seth, the son of Adam, the first man (cf. Onkelos).'</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>['THERE SHALL STEP FORTH A STAR OUT OF JACOB. Because the Messiah will gather together the dispersed of Israel from all the corners of the earth, Balaam compares him [metaphorically] to &lt;i&gt;a star&lt;/i&gt; that passes through the firmament from the ends of heaven, just as it is said about [the Messiah]: &lt;i&gt;and behold, there came with the clouds of heaven, one like unto a son of man&lt;/i&gt; etc.&lt;sup class="footnote-marker"&gt;246&lt;/sup&gt;&lt;i class="footnote"&gt;Daniel 7:13.&lt;/i&gt; Balaam thus said that he saw that at a distant time &lt;i&gt;a star&lt;/i&gt; would pass from the ends of heaven, and there would rise out of it the sceptre of a ruler, &lt;i&gt;and he shall smite through the corners of Moab, and break down all the sons of Seth&lt;/i&gt;, the son of Adam,&lt;sup class="footnote-marker"&gt;247&lt;/sup&gt;&lt;i class="footnote"&gt;Genesis 5:3.&lt;/i&gt; who was the father of all the nations.&lt;sup class="footnote-marker"&gt;248&lt;/sup&gt;&lt;i class="footnote"&gt;See Ramban &lt;i&gt;ibid.&lt;/i&gt;, Vol. I, p. 98.&lt;/i&gt; He mentioned &lt;i&gt;the corners of Moab&lt;/i&gt; in order to inform Balak that his people would not fall into the hand of Israel now, but &lt;i&gt;in the end of days&lt;/i&gt;&lt;sup class="footnote-marker"&gt;239&lt;/sup&gt;&lt;i class="footnote"&gt;Verse 14.&lt;/i&gt; Moab will not be saved from the hand of the ruling king [in Israel]. And the meaning of &lt;i&gt;‘the corners’ of Moab&lt;/i&gt; is that this ruler [in Israel] &lt;i&gt;will break down all the sons of Seth&lt;/i&gt;, and they [Moab] will not be saved, even though they are &lt;i&gt;cut off on ‘the corner,’&lt;/i&gt;&lt;sup class="footnote-marker"&gt;249&lt;/sup&gt;&lt;i class="footnote"&gt;Jeremiah 9:25. This is an epithet for certain Arabian tribes, who had the corners of their hair clipped. Ramban here uses this term metaphorically, in its literal sense of “cut off in the corner”, to refer to a people who live in the remotest corners of the world.&lt;/i&gt; and have no name among the nations, and will not fight against Israel.']</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>['אראנו, I can clearly see it but it is not due now.', 'דרך כוכב, both physical and enduring. We find the word כוכב used in this sense in &lt;a class ="refLink" href="/Daniel.12.3" data-ref="Daniel 12:3"&gt;Daniel 12,3&lt;/a&gt; as ומצדיקי הרבים ככוכבם לעולם, “and those who lead many to righteousness will be like the stars forever and ever.”', 'ומחץ פאתי מואב, even though all the nations will be wiped out by G’d the nations Edom and Moav will be decisively defeated by the Jewish people themselves as an act of vengeance for their longstanding enmity to the Jewish people.\n']</t>
+        </is>
+      </c>
       <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>I see it but not now, I perceive it but not in the near future; a star [&lt;b&gt;king&lt;/b&gt;] has gone forth from Yaakov, and a staff has arisen [&lt;b&gt;the Moshiach will be magnified by&lt;/b&gt;] from Yisroel, which will smash the corners [&lt;b&gt;kill the leaders&lt;/b&gt;] of Moav, and impale all of the sons of Sheis [&lt;b&gt;will rule over mankind&lt;/b&gt;].</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>I shall see Him, but not now; I shall behold Him, but it is not near. When the mighty King of Jakob's house shall reign, and the Meshiha, the Power-sceptre of Israel, be anointed, He will slay the princes of the Moabaee, and bring to nothing all the children of Sheth, the armies of Gog who will do battle against Israel and all their carcases shall fall before Him.</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="68.2" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
@@ -753,64 +811,78 @@
       </c>
       <c r="H9" s="3" t="n"/>
       <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>He said, Please [&lt;b&gt;Now&lt;/b&gt;] take your son, your only one, who you love—Yitzchok—and go to the land of Moriah [&lt;b&gt;worship&lt;/b&gt;]. Sacrifice him [&lt;b&gt;before me&lt;/b&gt;] as a burnt-offering on one of the mountains which I will designate to you.</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>And He said, Take now thy son, thy only one whom thou lovest, Izhak, and go into the land of worship, and offer him there, a whole burnt offering, upon one of the mountains that I will tell thee.</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="68.2" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Proverbs</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>24 Shivi’im heptads is decreed upon thy people and upon thy Ir Kodesh (Holy City), to restrain the peysha (transgression), and to make an end of chattat (sin), and to make kapporah for avon, and to bring in Tzedek Olamim (Everlasting Righteousness), and to seal up the chazon and navi, and to anoint the Kodesh HaKodashim.</t>
+          <t>11 As a kelev returneth to his vomit, so a kesil (fool) returneth to his folly.</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>"Setenta semanas estão decretadas para o seu povo e sua santa cidade para acabar com a transgressão, para dar fim ao pecado, para expiar as culpas, para trazer justiça eterna, para cumprir a visão e a profecia, e para ungir o santíssimo.</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>'&lt;b&gt;Seventy weeks [of years] have been decreed&lt;/b&gt; on Jerusalem from the day of the first destruction in the days of Zedekiah until it will be [destroyed] the second time.', '&lt;b&gt;to terminate the transgression and to end sin&lt;/b&gt; so that Israel should receive their complete retribution in the exile of Titus and his subjugation, in order that their transgressions should terminate, their sins should end, and their iniquities should be expiated, in order to bring upon them eternal righteousness and to anoint upon them (sic) the Holy of Holies: the Ark, the altars, and the holy vessels, which they will bring to them through the king Messiah. The number of seven weeks is four hundred and ninety years. The Babylonian exile was seventy [years] and the Second Temple stood four hundred and twenty [years].'</t>
-        </is>
-      </c>
+          <t>Como o cão volta ao seu vômito, assim o insensato repete a sua insensatez.</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
       <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
     </row>
     <row r="11" ht="68.2" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Psalms</t>
+          <t>Isaiah</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>6 By the Devar Hashem were Shomayim made., and all the tz’va (host) of them by the ruach (breath) of His mouth [MJ 11:3., Yn 1:1., Psa 56:5].</t>
+          <t>7 He was oppressed, and he was afflicted, yet he opened not his mouth., he is brought as a seh (lamb., see Shemot 12:3) to the slaughter, and as a sheep before her shearers is dumb, so he openeth not his mouth.</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Mediante a palavra do Senhor foram feitos os céus, e os corpos celestes, pelo sopro de sua boca.</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n"/>
+          <t>Ele foi oprimido e afligido, contudo não abriu a sua boca; como um cordeiro foi levado para o matadouro, e como uma ovelha que diante de seus tosquiadores fica calada, ele não abriu a sua boca.</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>'&lt;b&gt;He was oppressed, and he was afflicted&lt;/b&gt; Behold he was oppressed by taskmasters and people who exert pressure.', '&lt;b&gt;and he was afflicted&lt;/b&gt; with verbal taunts, sorparlec in O.F.', '&lt;b&gt;yet he would not open his mouth&lt;/b&gt; He would suffer and remain silent like the lamb that is brought to the slaughter, and like the ewe that is mute before her shearers.', '&lt;b&gt;and he would not open his mouth&lt;/b&gt; This refers to the lamb brought to the slaughter.'</t>
+        </is>
+      </c>
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
       <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
     </row>
     <row r="12" ht="68.2" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
@@ -819,130 +891,138 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>17 For, hinei, I create Shomayim Chadashim and eretz Chadashah., and the rishonot shall not be remembered, nor come into mind.</t>
+          <t>9 And he made his kever (grave) with the resha’im, and with the oisher (rich man., see Mt 27:57-60) bemotayv (in his deaths, intensive plural should be translated singular, death)., because he had done no chamas (violence), neither was any mirmah (deceit) in his mouth. T.N. We stray as sheep., we return in Moshiach as children (zera)., the Techiyas HaMoshiach (Resurrection of Moshiach) predicted in v. 10 [Dead Sea Scrolls Isaiah Scroll says Moshiach "will see the light [of life].," see also the Targum HaShivim]</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>"Pois vejam! Criarei novos céus e nova terra, e as coisas passadas não serão lembradas. Jamais virão à mente!</t>
+          <t>Foi-lhe dado um túmulo com os ímpios, e com os ricos em sua morte, embora não tivesse cometido qualquer violência nem houvesse qualquer mentira em sua boca.</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>'&lt;b&gt;new heavens&lt;/b&gt; The princes above shall be renewed, and the princes of Israel shall be the upper princes and the princes of the heathens (the nations [Parshandatha]) will be lower, and so on the earth. ([K’li Paz reads:] The princes above shall be renewed, to raise up the humble and to humble the high ones, and so on the earth.) And some say that there will actually be new heavens, and that is correct, for Scripture proves it (infra 66:22): “For as the new heavens, etc.”'</t>
+          <t>'&lt;b&gt;And he gave his grave to the wicked&lt;/b&gt; He subjected himself to be buried according to anything the wicked of the heathens (nations [mss., K’li Paz]) would decree upon him, for they would penalize him with death and the burial of donkeys in the intestines of the dogs.', '&lt;b&gt;to the wicked&lt;/b&gt; According to the will of the wicked, he was willing to be buried, and he would not deny the living God.', '&lt;b&gt;and to the wealthy with his kinds of death&lt;/b&gt; and to the will of the ruler he subjected himself to all kinds of death that he decreed upon him, because he did not wish to agree to (denial) [of the Torah] to commit evil and to rob like all the heathens (nations [mss., K’li Paz]) among whom he lived.', '&lt;b&gt;and there was no deceit in his mouth&lt;/b&gt; to accept idolatry (to accept a pagan deity as God [Parshandatha]).'</t>
         </is>
       </c>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
       <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
     </row>
     <row r="13" ht="68.2" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>Isaiah</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>17</v>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>17 I see him, but not now., I behold him, but not karov (near)., there shall come a Kokhav (Star, i.e. Moshiach, see Targums) out of Ya’akov, and a Shevet (Sceptre) shall rise out of Yisroel, and shall strike through the temples (i.e., sides of the head) of Moav, and destroy all the Bnei Shet.</t>
+          <t>17 For, hinei, I create Shomayim Chadashim and eretz Chadashah., and the rishonot shall not be remembered, nor come into mind.</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Eu o vejo, mas não agora; eu o avisto, mas não de perto. Uma estrela surgirá de Jacó; um cetro se levantará de Israel. Ele esmagará as frontes de Moabe e o crânio de todos os descendentes de Sete.</t>
+          <t>"Pois vejam! Criarei novos céus e nova terra, e as coisas passadas não serão lembradas. Jamais virão à mente!</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>'אראנו I SEE HIM — I see the preeminence of Jacob and his greatness, but it is not now (ולא עתה), but will be after some time.', 'דרך כוכב A STAR COMETH OUT [OF JACOB] — Understand this as the Targum does (“a king will arise from Jacob”). The word דרך has the same meaning as in (&lt;a class ="refLink" href="/Lamentations.2.4" data-ref="Lamentations 2:4"&gt;Lamentations 2:4&lt;/a&gt;): “He has bent (דרך lit., trodden) his bow; this expression is used because the star shoots across [the heavens] as an arrow does when the bow is trodden. In O. F. destent. It is as much as to say, “Prosperity (a good fortune) will rise”.', 'וקם שבט AND A שבט RISES [OUT OF ISRAEL] — a king, who chastises with the rod (שבט) and has sovereign power.', 'ומחץ פאתי מואב AND PIERCETH THE CORNERS OF MOAB — This is a reference to David of whom it is stated, (&lt;a class ="refLink" href="/II_Samuel.8.2" data-ref="II Samuel 8:2"&gt;II Samuel 8:2&lt;/a&gt;) “[And he smote Moab] … making them to lie down on the ground and he measured two lines to put to death etc.”.', 'וקרקר AND UNDERMINETH — This is an expression denoting “digging”, as in (&lt;a class ="refLink" href="/II_Kings.19.24" data-ref="II Kings 19:24"&gt;2 Kings 19:24&lt;/a&gt;): “I have dug (קרתי)”; (&lt;a class ="refLink" href="/Isaiah.51.1" data-ref="Isaiah 51:1"&gt;Isaiah 51:1&lt;/a&gt;): “The hole of the pit from which you were dug out  (נקרתם); (&lt;a class ="refLink" href="/Proverbs.30.17" data-ref="Proverbs 30:17"&gt;Proverbs 30:17&lt;/a&gt;) “The ravens of the valley shall dig it out (יקרהו)". In O. F. forer.', 'כל בני שת ALL THE CHILDREN OF SETH — i.e., all nations, because all of them issued from Seth, the son of Adam, the first man (cf. Onkelos).'</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>['THERE SHALL STEP FORTH A STAR OUT OF JACOB. Because the Messiah will gather together the dispersed of Israel from all the corners of the earth, Balaam compares him [metaphorically] to &lt;i&gt;a star&lt;/i&gt; that passes through the firmament from the ends of heaven, just as it is said about [the Messiah]: &lt;i&gt;and behold, there came with the clouds of heaven, one like unto a son of man&lt;/i&gt; etc.&lt;sup class="footnote-marker"&gt;246&lt;/sup&gt;&lt;i class="footnote"&gt;Daniel 7:13.&lt;/i&gt; Balaam thus said that he saw that at a distant time &lt;i&gt;a star&lt;/i&gt; would pass from the ends of heaven, and there would rise out of it the sceptre of a ruler, &lt;i&gt;and he shall smite through the corners of Moab, and break down all the sons of Seth&lt;/i&gt;, the son of Adam,&lt;sup class="footnote-marker"&gt;247&lt;/sup&gt;&lt;i class="footnote"&gt;Genesis 5:3.&lt;/i&gt; who was the father of all the nations.&lt;sup class="footnote-marker"&gt;248&lt;/sup&gt;&lt;i class="footnote"&gt;See Ramban &lt;i&gt;ibid.&lt;/i&gt;, Vol. I, p. 98.&lt;/i&gt; He mentioned &lt;i&gt;the corners of Moab&lt;/i&gt; in order to inform Balak that his people would not fall into the hand of Israel now, but &lt;i&gt;in the end of days&lt;/i&gt;&lt;sup class="footnote-marker"&gt;239&lt;/sup&gt;&lt;i class="footnote"&gt;Verse 14.&lt;/i&gt; Moab will not be saved from the hand of the ruling king [in Israel]. And the meaning of &lt;i&gt;‘the corners’ of Moab&lt;/i&gt; is that this ruler [in Israel] &lt;i&gt;will break down all the sons of Seth&lt;/i&gt;, and they [Moab] will not be saved, even though they are &lt;i&gt;cut off on ‘the corner,’&lt;/i&gt;&lt;sup class="footnote-marker"&gt;249&lt;/sup&gt;&lt;i class="footnote"&gt;Jeremiah 9:25. This is an epithet for certain Arabian tribes, who had the corners of their hair clipped. Ramban here uses this term metaphorically, in its literal sense of “cut off in the corner”, to refer to a people who live in the remotest corners of the world.&lt;/i&gt; and have no name among the nations, and will not fight against Israel.']</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>['אראנו, I can clearly see it but it is not due now.', 'דרך כוכב, both physical and enduring. We find the word כוכב used in this sense in &lt;a class ="refLink" href="/Daniel.12.3" data-ref="Daniel 12:3"&gt;Daniel 12,3&lt;/a&gt; as ומצדיקי הרבים ככוכבם לעולם, “and those who lead many to righteousness will be like the stars forever and ever.”', 'ומחץ פאתי מואב, even though all the nations will be wiped out by G’d the nations Edom and Moav will be decisively defeated by the Jewish people themselves as an act of vengeance for their longstanding enmity to the Jewish people.\n']</t>
-        </is>
-      </c>
+          <t>'&lt;b&gt;new heavens&lt;/b&gt; The princes above shall be renewed, and the princes of Israel shall be the upper princes and the princes of the heathens (the nations [Parshandatha]) will be lower, and so on the earth. ([K’li Paz reads:] The princes above shall be renewed, to raise up the humble and to humble the high ones, and so on the earth.) And some say that there will actually be new heavens, and that is correct, for Scripture proves it (infra 66:22): “For as the new heavens, etc.”'</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
       <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
     </row>
     <row r="14" ht="68.2" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Exodus</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>5 Your seh (lamb [see Yeshayah 53:7]) shall be tamim (without blemish), a zachar (male) within its first year., ye shall take it out from the sheep, or from the goats.,</t>
+          <t>24 Shivi’im heptads is decreed upon thy people and upon thy Ir Kodesh (Holy City), to restrain the peysha (transgression), and to make an end of chattat (sin), and to make kapporah for avon, and to bring in Tzedek Olamim (Everlasting Righteousness), and to seal up the chazon and navi, and to anoint the Kodesh HaKodashim.</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>O animal escolhido será macho de um ano, sem defeito, e pode ser cordeiro ou cabrito.</t>
+          <t>"Setenta semanas estão decretadas para o seu povo e sua santa cidade para acabar com a transgressão, para dar fim ao pecado, para expiar as culpas, para trazer justiça eterna, para cumprir a visão e a profecia, e para ungir o santíssimo.</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>' תמים PERFECT i. e. without blemish (&lt;a class ="refLink" href="/Mekhilta_d\'Rabbi_Yishmael.13.5.1" data-ref="Mekhilta d\'Rabbi Yishmael 13:5:1"&gt;Mekhilta d\'Rabbi Yishmael 13:5:1&lt;/a&gt;).', " בן שנה OF THE FIRST YEAR — the whole of its first year it is termed שנה בן, as much as to say, that it was born during this year (it does not mean that it is one year old — in its second year) (cf.Mekhilta d'Rabbi Yishmael 13:5:2).", ' מן הכבשים ומן העזים — i. e. either from these (a lamb) or from these (a goat) (i. e. the ו of ומן does not signify “and”, but “or”); for a goat, also, is called שה, as it is said, (&lt;a class ="refLink" href="/Deuteronomy.14.4" data-ref="Deuteronomy 14:4"&gt;Deuteronomy 14:4&lt;/a&gt;) “the שה of the goats” (שה means the young animal, either of the sheep or of the goats) (cf. &lt;a class ="refLink" href="/Mekhilta_d\'Rabbi_Yishmael.13.5.1" data-ref="Mekhilta d\'Rabbi Yishmael 13:5:1"&gt;Mekhilta d\'Rabbi Yishmael 13:5:1&lt;/a&gt;).'</t>
+          <t>'&lt;b&gt;Seventy weeks [of years] have been decreed&lt;/b&gt; on Jerusalem from the day of the first destruction in the days of Zedekiah until it will be [destroyed] the second time.', '&lt;b&gt;to terminate the transgression and to end sin&lt;/b&gt; so that Israel should receive their complete retribution in the exile of Titus and his subjugation, in order that their transgressions should terminate, their sins should end, and their iniquities should be expiated, in order to bring upon them eternal righteousness and to anoint upon them (sic) the Holy of Holies: the Ark, the altars, and the holy vessels, which they will bring to them through the king Messiah. The number of seven weeks is four hundred and ninety years. The Babylonian exile was seventy [years] and the Second Temple stood four hundred and twenty [years].'</t>
         </is>
       </c>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
       <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
     </row>
     <row r="15" ht="68.2" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Isaiah</t>
+          <t>Exodus</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>7 He was oppressed, and he was afflicted, yet he opened not his mouth., he is brought as a seh (lamb., see Shemot 12:3) to the slaughter, and as a sheep before her shearers is dumb, so he openeth not his mouth.</t>
+          <t>5 Your seh (lamb [see Yeshayah 53:7]) shall be tamim (without blemish), a zachar (male) within its first year., ye shall take it out from the sheep, or from the goats.,</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Ele foi oprimido e afligido, contudo não abriu a sua boca; como um cordeiro foi levado para o matadouro, e como uma ovelha que diante de seus tosquiadores fica calada, ele não abriu a sua boca.</t>
+          <t>O animal escolhido será macho de um ano, sem defeito, e pode ser cordeiro ou cabrito.</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>'&lt;b&gt;He was oppressed, and he was afflicted&lt;/b&gt; Behold he was oppressed by taskmasters and people who exert pressure.', '&lt;b&gt;and he was afflicted&lt;/b&gt; with verbal taunts, sorparlec in O.F.', '&lt;b&gt;yet he would not open his mouth&lt;/b&gt; He would suffer and remain silent like the lamb that is brought to the slaughter, and like the ewe that is mute before her shearers.', '&lt;b&gt;and he would not open his mouth&lt;/b&gt; This refers to the lamb brought to the slaughter.'</t>
+          <t>' תמים PERFECT i. e. without blemish (&lt;a class ="refLink" href="/Mekhilta_d\'Rabbi_Yishmael.13.5.1" data-ref="Mekhilta d\'Rabbi Yishmael 13:5:1"&gt;Mekhilta d\'Rabbi Yishmael 13:5:1&lt;/a&gt;).', " בן שנה OF THE FIRST YEAR — the whole of its first year it is termed שנה בן, as much as to say, that it was born during this year (it does not mean that it is one year old — in its second year) (cf.Mekhilta d'Rabbi Yishmael 13:5:2).", ' מן הכבשים ומן העזים — i. e. either from these (a lamb) or from these (a goat) (i. e. the ו of ומן does not signify “and”, but “or”); for a goat, also, is called שה, as it is said, (&lt;a class ="refLink" href="/Deuteronomy.14.4" data-ref="Deuteronomy 14:4"&gt;Deuteronomy 14:4&lt;/a&gt;) “the שה of the goats” (שה means the young animal, either of the sheep or of the goats) (cf. &lt;a class ="refLink" href="/Mekhilta_d\'Rabbi_Yishmael.13.5.1" data-ref="Mekhilta d\'Rabbi Yishmael 13:5:1"&gt;Mekhilta d\'Rabbi Yishmael 13:5:1&lt;/a&gt;).'</t>
         </is>
       </c>
       <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
       <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>A flawless lamb, a yearling male must be in your possession. You may take it from sheep or goats.</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>The lamb shall be perfect, a male, the son of a year he shall be to you; from the sheep or from the young goats ye may take.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
